--- a/biology/Histoire de la zoologie et de la botanique/Eugène_Marais/Eugène_Marais.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Eugène_Marais/Eugène_Marais.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Eug%C3%A8ne_Marais</t>
+          <t>Eugène_Marais</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eugène Nielen Marais (9 janvier 1871 – 29 mars 1936) est un avocat, naturaliste, écrivain et poète d'Afrique du Sud, issu de la communauté afrikaner.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Eug%C3%A8ne_Marais</t>
+          <t>Eugène_Marais</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Origines</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les ancêtres d'Eugène Marais étaient Charles et Claude Marais, des huguenots français de la région de Paris émigrés en Afrique du Sud pour échapper à la persécution des protestants[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les ancêtres d'Eugène Marais étaient Charles et Claude Marais, des huguenots français de la région de Paris émigrés en Afrique du Sud pour échapper à la persécution des protestants.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Eug%C3%A8ne_Marais</t>
+          <t>Eugène_Marais</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Eugène Marais est né dans une famille afrikaner à Pretoria dans le Transvaal. Il était le treizième et dernier enfant de Jan Christiaan Nielen et de Catharina Marais. Ses parents avaient quitté Le Cap quelques mois avant sa naissance pour s'installer à Pretoria.
 Il fait ses études à Pretoria puis à Paarl dans la colonie du Cap.
@@ -554,7 +570,7 @@
 Durant la dernière phase de la guerre, il se joint à une expédition allemande qui tente d'apporter par la mer des munitions et des médicaments aux commandos boers. Il est alors frappé par la malaria en pleine zone tropicale. La guerre prend fin avant que son navire n'arrive à destination. 
 À partir de 1905, il s'intéresse au naturalisme, notamment dans les régions nord du Transvaal. Il abandonne le journalisme et la politique pour étudier notamment la vie des termites, des mambas noirs et du cobra noir. Il produit également une étude sur la vie des primates. 
 Comme il se refuse à écrire en anglais à la suite des horreurs de la guerre des Boers, l’œuvre de Marais en afrikaans, et parue dans les quotidiens et les hebdomadaires du pays, sera finalement peu connue en dehors de l’Afrique du Sud.
-Eugène Marais a accusé Maurice Maeterlinck d'avoir plagié son livre Die Siel van die Mier (L'Âme des termites, 1925) pour La Vie des termites. Plus précisément, l'écrivain et scientifique boer lui a reproché l'emprunt du concept d'unité organique de la termitière, ainsi que du terme « nasicorne » (un néologisme qu'il avait formé). Soutenu par un lobby boer, Marais a poursuivi Maeterlinck devant les tribunaux. Sa renonciation en cours de procédure serait due à une absence de fonds et à son addiction à la morphine. Certains parlent aujourd'hui « d'exemple classique de plagiat académique » (Bignell, sans argumentation, dans le cadre d'une étude biologique sur les termites[2]) ; d'autres le minimisent. Toutefois David Van Reybrouck, dans Le Fléau[3], roman-enquête consacré essentiellement à la question, montre précisément comment Maeterlinck a pu avoir connaissance des travaux de Marais et comment il a ajouté, juste avant la publication de son livre, les passages incriminés qui détonnent par rapport au reste du texte. Plus généralement Maeterlinck n'a pas indiqué ses sources avec la précision requise, se contenant d'y renvoyer en fin d'ouvrage, comme une simple bibliographie dans laquelle Marais ne figure même pas.
+Eugène Marais a accusé Maurice Maeterlinck d'avoir plagié son livre Die Siel van die Mier (L'Âme des termites, 1925) pour La Vie des termites. Plus précisément, l'écrivain et scientifique boer lui a reproché l'emprunt du concept d'unité organique de la termitière, ainsi que du terme « nasicorne » (un néologisme qu'il avait formé). Soutenu par un lobby boer, Marais a poursuivi Maeterlinck devant les tribunaux. Sa renonciation en cours de procédure serait due à une absence de fonds et à son addiction à la morphine. Certains parlent aujourd'hui « d'exemple classique de plagiat académique » (Bignell, sans argumentation, dans le cadre d'une étude biologique sur les termites) ; d'autres le minimisent. Toutefois David Van Reybrouck, dans Le Fléau, roman-enquête consacré essentiellement à la question, montre précisément comment Maeterlinck a pu avoir connaissance des travaux de Marais et comment il a ajouté, juste avant la publication de son livre, les passages incriminés qui détonnent par rapport au reste du texte. Plus généralement Maeterlinck n'a pas indiqué ses sources avec la précision requise, se contenant d'y renvoyer en fin d'ouvrage, comme une simple bibliographie dans laquelle Marais ne figure même pas.
 En 1936, privé de morphine pendant quelques jours, il se tira dessus avec un fusil dans sa ferme de Pelindaba. Seulement blessé, il chargea de nouveau le fusil et se tira une balle dans la bouche.
 </t>
         </is>
@@ -566,7 +582,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Eug%C3%A8ne_Marais</t>
+          <t>Eugène_Marais</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -584,7 +600,9 @@
           <t>Postérité</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Marais fut le premier naturaliste à pratiquer l'éthologie. Sa contribution principale à la culture sud-africaine et plus spécialement afrikaner fut ses poèmes. Eugène Marais est ainsi considéré comme l'un des plus grands poètes sud-africains et l’un des plus populaires.
 Il est tout à la fois reconnu comme un héros du nationalisme afrikaner, un défenseur de l'afrikaans mais aussi comme un rebelle iconoclaste. Les différentes facettes de son identité lui ont permis ainsi de faire consensus, pour des raisons différentes, au sein de la vie intellectuelle et politique sud-africaine. 
@@ -601,7 +619,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Eug%C3%A8ne_Marais</t>
+          <t>Eugène_Marais</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -619,7 +637,9 @@
           <t>Ouvrages</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>The Soul of the White Ant, 1937, d'abord publié en afrikaans sous le titre Die Siel van die Mier (1925),
 The Soul of the Ape, 1919, ouvrage posthume publié en 1969.</t>
@@ -632,7 +652,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Eug%C3%A8ne_Marais</t>
+          <t>Eugène_Marais</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -650,7 +670,9 @@
           <t>Exemple de poème</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Nuit d'hiver
 Comme il est froid le vent
